--- a/medicine/Psychotrope/La_Beuze/La_Beuze.xlsx
+++ b/medicine/Psychotrope/La_Beuze/La_Beuze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beuze est un film français réalisé par François Desagnat et Thomas Sorriaux, sorti en 2003.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphonse et Scotch, deux amis depuis toujours, découvrent un stock de cannabis ayant appartenu aux nazis pour faire des expérimentations sur les humains. Traqués par la section des stups de la police française et le fils d'un ex-nazi à la recherche de la beuze, ils vont tenter de faire un business avec leur herbe de superbe qualité.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Beuze
 Réalisation : François Desagnat et Thomas Sorriaux
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Michaël Youn : Alphonse Brown
@@ -641,10 +659,12 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Succès au Box Office avec 2 millions d'entrées, le film reçoit à sa sortie un accueil critique mitigé, Allociné lui accorde une note de 2,7/5 de critiques presse.
-Le film est ensuite dénigré par les internautes et se retrouve dans la liste des pires films de tous les temps sur Allociné, avec une note moyenne de 1,3/5 attribuée par les spectateurs[1].
+Le film est ensuite dénigré par les internautes et se retrouve dans la liste des pires films de tous les temps sur Allociné, avec une note moyenne de 1,3/5 attribuée par les spectateurs.
 </t>
         </is>
       </c>
@@ -673,7 +693,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La chanson Le Frunkp, issue du film, est sortie en single en Belgique et en France.
 </t>
@@ -704,7 +726,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le film est une parodie de plusieurs films américains :
 La scène de la tronçonneuse et de la baignoire est une référence au film Scarface de Brian De Palma.
